--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:30:27+00:00</t>
+    <t>2024-01-25T17:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-25T17:55:23+00:00</t>
+    <t>2024-01-26T18:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T18:28:41+00:00</t>
+    <t>2024-01-29T09:55:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T09:55:10+00:00</t>
+    <t>2024-01-29T16:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T16:18:50+00:00</t>
+    <t>2024-01-29T17:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T17:19:23+00:00</t>
+    <t>2024-01-29T18:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T18:07:49+00:00</t>
+    <t>2024-01-29T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T18:45:36+00:00</t>
+    <t>2024-01-30T18:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T18:03:32+00:00</t>
+    <t>2024-01-30T19:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T19:10:16+00:00</t>
+    <t>2024-01-30T20:20:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T20:20:44+00:00</t>
+    <t>2024-01-30T20:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T20:36:49+00:00</t>
+    <t>2024-01-31T09:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T09:58:08+00:00</t>
+    <t>2024-01-31T13:01:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:01:24+00:00</t>
+    <t>2024-01-31T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T14:52:20+00:00</t>
+    <t>2024-01-31T15:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T15:44:28+00:00</t>
+    <t>2024-01-31T17:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:33:42+00:00</t>
+    <t>2024-01-31T17:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:34:59+00:00</t>
+    <t>2024-01-31T17:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:53:22+00:00</t>
+    <t>2024-02-01T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T09:35:36+00:00</t>
+    <t>2024-02-01T10:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T10:32:02+00:00</t>
+    <t>2024-02-01T10:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T10:54:31+00:00</t>
+    <t>2024-02-01T11:14:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T11:14:35+00:00</t>
+    <t>2024-02-01T13:00:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T13:00:03+00:00</t>
+    <t>2024-02-01T16:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T16:21:00+00:00</t>
+    <t>2024-02-01T16:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T16:42:37+00:00</t>
+    <t>2024-02-01T17:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T17:08:29+00:00</t>
+    <t>2024-02-01T17:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T17:43:36+00:00</t>
+    <t>2024-02-01T18:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T18:39:39+00:00</t>
+    <t>2024-02-02T08:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T08:32:51+00:00</t>
+    <t>2024-02-02T08:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T08:59:39+00:00</t>
+    <t>2024-02-02T10:38:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T10:38:11+00:00</t>
+    <t>2024-02-02T13:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T13:56:21+00:00</t>
+    <t>2024-02-02T16:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T16:42:05+00:00</t>
+    <t>2024-02-02T19:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T19:41:48+00:00</t>
+    <t>2024-02-02T21:16:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T21:16:55+00:00</t>
+    <t>2024-02-02T22:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T22:06:01+00:00</t>
+    <t>2024-02-02T22:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T22:50:29+00:00</t>
+    <t>2024-02-02T23:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$135</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4675" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="730">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T23:12:26+00:00</t>
+    <t>2024-02-05T13:18:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -671,22 +671,6 @@
   <si>
     <t>Extension créée dans le cadre du ROR pour décrire une ressource matérielle discriminante pour la réalisation d'une prestation. Cette extension a été créée, car Device ne correspondait pas à la définition de l'équipement pour le ROR.
  Device représente une instance d'un équipement alors l'équipement pour le ROR correspond juste au nombre d'équipement de même type.</t>
-  </si>
-  <si>
-    <t>Location.extension:ror-location-equipment-limit</t>
-  </si>
-  <si>
-    <t>ror-location-equipment-limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-equipment-limit}
-</t>
-  </si>
-  <si>
-    <t>LimiteCaracteristiqueEquipement : limites que peut supporter l'équipement le plus tolérant parmi les équipements spécifiques de même type dans cette organisation</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR qui précise les limites que peut supporter l'équipement le plus tolérant parmi les équipements spécifiques de même type dans cette organisation.</t>
   </si>
   <si>
     <t>Location.extension:ror-location-residential-capacity</t>
@@ -2612,7 +2596,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL136"/>
+  <dimension ref="A1:AL135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5159,10 +5143,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -5257,41 +5241,43 @@
         <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
@@ -5327,19 +5313,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -5354,7 +5340,7 @@
         <v>114</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -5369,7 +5355,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5382,25 +5368,23 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J26" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -5437,11 +5421,9 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
@@ -5449,7 +5431,7 @@
         <v>112</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -5461,23 +5443,25 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
@@ -5486,7 +5470,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -5498,17 +5482,17 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -5545,17 +5529,19 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5570,22 +5556,20 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
@@ -5603,21 +5587,19 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -5665,44 +5647,44 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -5714,15 +5696,17 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -5759,34 +5743,34 @@
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5794,44 +5778,46 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5855,46 +5841,46 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5902,10 +5888,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5913,7 +5899,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>83</v>
@@ -5922,25 +5908,25 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5965,13 +5951,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5989,7 +5975,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -6004,7 +5990,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -6012,10 +5998,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6023,7 +6009,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>83</v>
@@ -6035,23 +6021,19 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -6075,13 +6057,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -6099,7 +6081,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -6108,13 +6090,13 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -6122,21 +6104,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -6148,15 +6130,17 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -6193,34 +6177,34 @@
         <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -6228,14 +6212,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6251,21 +6235,23 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -6301,19 +6287,19 @@
         <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -6325,10 +6311,10 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -6336,10 +6322,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6350,7 +6336,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -6359,23 +6345,19 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -6423,22 +6405,22 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>102</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -6446,21 +6428,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -6472,15 +6454,17 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -6517,34 +6501,34 @@
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -6552,21 +6536,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -6575,21 +6559,23 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>107</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -6625,34 +6611,34 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -6660,10 +6646,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6686,20 +6672,18 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -6747,7 +6731,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6762,7 +6746,7 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6770,10 +6754,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6781,7 +6765,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>83</v>
@@ -6796,18 +6780,20 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6816,7 +6802,7 @@
         <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>74</v>
@@ -6855,7 +6841,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6870,7 +6856,7 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6878,10 +6864,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6889,7 +6875,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>83</v>
@@ -6904,19 +6890,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6926,7 +6912,7 @@
         <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>74</v>
@@ -6965,7 +6951,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6980,7 +6966,7 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6988,10 +6974,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7014,19 +7000,19 @@
         <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -7075,7 +7061,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -7090,7 +7076,7 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -7098,10 +7084,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7124,19 +7110,19 @@
         <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -7185,7 +7171,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -7200,7 +7186,7 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -7208,10 +7194,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7234,19 +7220,19 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -7259,7 +7245,7 @@
         <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>74</v>
@@ -7295,7 +7281,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7310,7 +7296,7 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -7318,10 +7304,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7344,20 +7330,18 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -7369,7 +7353,7 @@
         <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>74</v>
@@ -7405,7 +7389,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7420,7 +7404,7 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -7428,10 +7412,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7454,16 +7438,16 @@
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>99</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7477,7 +7461,7 @@
         <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>74</v>
@@ -7513,7 +7497,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7525,10 +7509,10 @@
         <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -7536,10 +7520,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7562,16 +7546,16 @@
         <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7621,7 +7605,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7633,10 +7617,10 @@
         <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -7644,12 +7628,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7670,18 +7656,18 @@
         <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7729,37 +7715,35 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>367</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>368</v>
+        <v>236</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7777,21 +7761,19 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
+        <v>100</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7839,44 +7821,44 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7888,15 +7870,17 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7933,34 +7917,34 @@
         <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7968,44 +7952,46 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -8029,46 +8015,46 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -8076,10 +8062,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8087,7 +8073,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>83</v>
@@ -8096,25 +8082,25 @@
         <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -8139,13 +8125,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -8163,7 +8149,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8178,7 +8164,7 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -8186,10 +8172,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8197,7 +8183,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>83</v>
@@ -8209,23 +8195,19 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
       </c>
@@ -8249,13 +8231,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -8273,7 +8255,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8282,13 +8264,13 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -8296,21 +8278,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -8322,15 +8304,17 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -8367,34 +8351,34 @@
         <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -8402,14 +8386,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8425,21 +8409,23 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8475,19 +8461,19 @@
         <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8499,10 +8485,10 @@
         <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -8510,10 +8496,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8524,7 +8510,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -8533,23 +8519,19 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8597,22 +8579,22 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>280</v>
+        <v>102</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -8620,21 +8602,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -8646,15 +8628,17 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8691,34 +8675,34 @@
         <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -8726,21 +8710,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -8749,21 +8733,23 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>107</v>
+        <v>283</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8799,34 +8785,34 @@
         <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8834,10 +8820,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8860,20 +8846,18 @@
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8921,7 +8905,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8936,7 +8920,7 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8944,10 +8928,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8955,7 +8939,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>83</v>
@@ -8970,18 +8954,20 @@
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8990,7 +8976,7 @@
         <v>74</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>74</v>
@@ -9029,7 +9015,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -9044,7 +9030,7 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -9052,10 +9038,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9063,7 +9049,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>83</v>
@@ -9078,19 +9064,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -9100,7 +9086,7 @@
         <v>74</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>384</v>
+        <v>74</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>74</v>
@@ -9139,7 +9125,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9154,7 +9140,7 @@
         <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -9162,10 +9148,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9188,19 +9174,19 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -9249,7 +9235,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9264,7 +9250,7 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -9272,10 +9258,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9298,19 +9284,19 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -9359,7 +9345,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9374,7 +9360,7 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -9382,10 +9368,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9408,19 +9394,19 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -9433,7 +9419,7 @@
         <v>74</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>74</v>
@@ -9469,7 +9455,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9484,7 +9470,7 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -9492,10 +9478,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9518,20 +9504,18 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
       </c>
@@ -9543,7 +9527,7 @@
         <v>74</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>74</v>
@@ -9579,7 +9563,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9594,7 +9578,7 @@
         <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -9602,10 +9586,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9628,16 +9612,16 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>99</v>
+        <v>348</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9651,7 +9635,7 @@
         <v>74</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>74</v>
@@ -9687,7 +9671,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9699,10 +9683,10 @@
         <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -9710,10 +9694,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9736,16 +9720,16 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9795,7 +9779,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9807,10 +9791,10 @@
         <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -9818,10 +9802,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9838,22 +9822,22 @@
         <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9879,13 +9863,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>74</v>
+        <v>390</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9903,7 +9887,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9915,21 +9899,21 @@
         <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>367</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9946,22 +9930,22 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9987,13 +9971,13 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -10011,7 +9995,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -10026,18 +10010,18 @@
         <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>397</v>
+        <v>147</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10060,16 +10044,16 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10095,13 +10079,13 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>403</v>
+        <v>74</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -10119,7 +10103,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -10134,10 +10118,10 @@
         <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>147</v>
+        <v>404</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -10156,7 +10140,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -10165,7 +10149,7 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>99</v>
@@ -10179,7 +10163,9 @@
       <c r="N70" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="O70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
       </c>
@@ -10215,16 +10201,16 @@
         <v>74</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>405</v>
@@ -10233,7 +10219,7 @@
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>95</v>
@@ -10242,7 +10228,7 @@
         <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -10250,12 +10236,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>74</v>
       </c>
@@ -10264,7 +10252,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -10279,16 +10267,16 @@
         <v>99</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -10325,19 +10313,19 @@
         <v>74</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10352,7 +10340,7 @@
         <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -10360,14 +10348,12 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>74</v>
       </c>
@@ -10385,22 +10371,22 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>413</v>
+        <v>300</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -10449,13 +10435,13 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>95</v>
@@ -10464,7 +10450,7 @@
         <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -10498,7 +10484,7 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>419</v>
@@ -10507,10 +10493,10 @@
         <v>420</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
@@ -10535,13 +10521,13 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -10574,18 +10560,18 @@
         <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>74</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10608,20 +10594,18 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10647,11 +10631,9 @@
       <c r="X74" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>74</v>
@@ -10669,13 +10651,13 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>95</v>
@@ -10684,18 +10666,18 @@
         <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10706,7 +10688,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10715,20 +10697,18 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>262</v>
+        <v>433</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10753,11 +10733,13 @@
         <v>74</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y75" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z75" t="s" s="2">
-        <v>435</v>
+        <v>74</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>74</v>
@@ -10775,7 +10757,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10787,21 +10769,21 @@
         <v>95</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>96</v>
+        <v>436</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>430</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10812,7 +10794,7 @@
         <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -10824,13 +10806,13 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>438</v>
+        <v>99</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>439</v>
+        <v>100</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>440</v>
+        <v>101</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10881,22 +10863,22 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>437</v>
+        <v>102</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>441</v>
+        <v>74</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>442</v>
+        <v>103</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
@@ -10904,10 +10886,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10915,10 +10897,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10930,13 +10912,13 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10975,34 +10957,34 @@
         <v>74</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
@@ -11010,21 +10992,23 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -11036,13 +11020,13 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>106</v>
+        <v>442</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>192</v>
+        <v>443</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>193</v>
+        <v>444</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11081,16 +11065,16 @@
         <v>74</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>113</v>
@@ -11119,7 +11103,7 @@
         <v>445</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>446</v>
@@ -11129,7 +11113,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>83</v>
@@ -11227,7 +11211,7 @@
         <v>450</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>451</v>
@@ -11237,7 +11221,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>83</v>
@@ -11335,17 +11319,15 @@
         <v>455</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>83</v>
@@ -11357,18 +11339,20 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>74</v>
@@ -11393,13 +11377,13 @@
         <v>74</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>74</v>
+        <v>458</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>74</v>
@@ -11417,22 +11401,22 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>113</v>
+        <v>460</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>95</v>
+        <v>461</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>74</v>
+        <v>462</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
@@ -11440,10 +11424,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11451,7 +11435,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>83</v>
@@ -11466,18 +11450,20 @@
         <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
@@ -11501,13 +11487,13 @@
         <v>74</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>463</v>
+        <v>74</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>464</v>
+        <v>74</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>74</v>
@@ -11525,7 +11511,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11534,13 +11520,13 @@
         <v>83</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>466</v>
+        <v>95</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
@@ -11548,10 +11534,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11559,7 +11545,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>83</v>
@@ -11568,25 +11554,25 @@
         <v>74</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>74</v>
@@ -11611,13 +11597,13 @@
         <v>74</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>74</v>
+        <v>475</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>74</v>
+        <v>476</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>74</v>
@@ -11635,7 +11621,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11650,7 +11636,7 @@
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
@@ -11658,10 +11644,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11678,26 +11664,24 @@
         <v>74</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>167</v>
+        <v>480</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>74</v>
       </c>
@@ -11721,13 +11705,13 @@
         <v>74</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>480</v>
+        <v>74</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>481</v>
+        <v>74</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>74</v>
@@ -11745,7 +11729,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11760,7 +11744,7 @@
         <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>483</v>
+        <v>103</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>74</v>
@@ -11768,10 +11752,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11794,7 +11778,7 @@
         <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>485</v>
+        <v>348</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>486</v>
@@ -11803,7 +11787,7 @@
         <v>487</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>488</v>
+        <v>351</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11853,7 +11837,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11865,10 +11849,10 @@
         <v>95</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>103</v>
+        <v>489</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>74</v>
@@ -11899,21 +11883,23 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>353</v>
+        <v>491</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>74</v>
       </c>
@@ -11961,7 +11947,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11973,10 +11959,10 @@
         <v>95</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>74</v>
@@ -11984,10 +11970,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12010,20 +11996,16 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>496</v>
+        <v>99</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>497</v>
+        <v>100</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>74</v>
       </c>
@@ -12071,7 +12053,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>495</v>
+        <v>102</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -12080,13 +12062,13 @@
         <v>83</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>501</v>
+        <v>103</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>74</v>
@@ -12094,21 +12076,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>74</v>
@@ -12120,15 +12102,17 @@
         <v>74</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>74</v>
@@ -12165,34 +12149,34 @@
         <v>74</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>74</v>
@@ -12200,44 +12184,46 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>107</v>
+        <v>500</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>108</v>
+        <v>501</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>74</v>
       </c>
@@ -12249,7 +12235,7 @@
         <v>74</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>74</v>
+        <v>504</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>74</v>
@@ -12261,46 +12247,46 @@
         <v>74</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>74</v>
+        <v>505</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>74</v>
+        <v>506</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>113</v>
+        <v>507</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>97</v>
+        <v>478</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
@@ -12308,10 +12294,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12328,7 +12314,7 @@
         <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>84</v>
@@ -12337,17 +12323,15 @@
         <v>167</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>74</v>
       </c>
@@ -12359,7 +12343,7 @@
         <v>74</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>74</v>
@@ -12374,10 +12358,10 @@
         <v>159</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>74</v>
@@ -12395,7 +12379,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -12410,7 +12394,7 @@
         <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
@@ -12418,10 +12402,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12444,18 +12428,20 @@
         <v>84</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>74</v>
       </c>
@@ -12467,7 +12453,7 @@
         <v>74</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>74</v>
@@ -12479,13 +12465,13 @@
         <v>74</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>518</v>
+        <v>74</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>519</v>
+        <v>74</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>74</v>
@@ -12503,7 +12489,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -12518,7 +12504,7 @@
         <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>74</v>
@@ -12526,10 +12512,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12540,7 +12526,7 @@
         <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>74</v>
@@ -12555,17 +12541,15 @@
         <v>99</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>74</v>
       </c>
@@ -12577,7 +12561,7 @@
         <v>74</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>74</v>
@@ -12613,13 +12597,13 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>95</v>
@@ -12628,7 +12612,7 @@
         <v>96</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>74</v>
@@ -12636,10 +12620,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12650,7 +12634,7 @@
         <v>75</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>74</v>
@@ -12659,20 +12643,18 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>74</v>
@@ -12685,7 +12667,7 @@
         <v>74</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>532</v>
+        <v>74</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>74</v>
@@ -12721,22 +12703,22 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>533</v>
+        <v>102</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>534</v>
+        <v>103</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>74</v>
@@ -12744,21 +12726,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>74</v>
@@ -12770,15 +12752,17 @@
         <v>74</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>74</v>
@@ -12815,34 +12799,34 @@
         <v>74</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>74</v>
@@ -12850,21 +12834,23 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="D95" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -12876,17 +12862,15 @@
         <v>74</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>106</v>
+        <v>534</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>107</v>
+        <v>535</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>74</v>
@@ -12923,16 +12907,16 @@
         <v>74</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>113</v>
@@ -12950,7 +12934,7 @@
         <v>114</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>97</v>
+        <v>537</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
@@ -12958,13 +12942,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>74</v>
@@ -12986,13 +12970,13 @@
         <v>74</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13058,7 +13042,7 @@
         <v>114</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>74</v>
@@ -13066,13 +13050,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>74</v>
@@ -13094,13 +13078,13 @@
         <v>74</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13166,7 +13150,7 @@
         <v>114</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>74</v>
@@ -13174,13 +13158,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>74</v>
@@ -13202,13 +13186,13 @@
         <v>74</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13274,7 +13258,7 @@
         <v>114</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>74</v>
@@ -13282,13 +13266,13 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>74</v>
@@ -13310,13 +13294,13 @@
         <v>74</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13382,7 +13366,7 @@
         <v>114</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>74</v>
@@ -13390,14 +13374,12 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
         <v>74</v>
       </c>
@@ -13418,13 +13400,13 @@
         <v>74</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>563</v>
+        <v>99</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>564</v>
+        <v>100</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>565</v>
+        <v>101</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13475,22 +13457,22 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>566</v>
+        <v>103</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>74</v>
@@ -13498,21 +13480,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>74</v>
@@ -13524,15 +13506,17 @@
         <v>74</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>74</v>
@@ -13569,34 +13553,34 @@
         <v>74</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>74</v>
@@ -13604,21 +13588,21 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>74</v>
@@ -13630,16 +13614,16 @@
         <v>74</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>107</v>
+        <v>568</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>108</v>
+        <v>569</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>109</v>
+        <v>570</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13647,7 +13631,7 @@
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>74</v>
+        <v>571</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>74</v>
@@ -13677,31 +13661,31 @@
         <v>74</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>113</v>
+        <v>572</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>97</v>
@@ -13712,10 +13696,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13723,7 +13707,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>83</v>
@@ -13738,24 +13722,22 @@
         <v>74</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>127</v>
+        <v>575</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>576</v>
+        <v>74</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>74</v>
@@ -13773,43 +13755,39 @@
         <v>74</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>74</v>
+        <v>578</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="AC103" s="2"/>
       <c r="AD103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>97</v>
@@ -13820,12 +13798,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="D104" t="s" s="2">
         <v>74</v>
       </c>
@@ -13846,13 +13826,13 @@
         <v>74</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>580</v>
+        <v>99</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13881,25 +13861,29 @@
       <c r="X104" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y104" s="2"/>
+      <c r="Y104" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="Z104" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AC104" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>585</v>
+        <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -13922,13 +13906,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C105" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>74</v>
@@ -13950,13 +13934,13 @@
         <v>74</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>99</v>
+        <v>588</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13983,13 +13967,13 @@
         <v>74</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>589</v>
+        <v>74</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>590</v>
+        <v>74</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>74</v>
@@ -14007,22 +13991,22 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>586</v>
+        <v>113</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>97</v>
+        <v>591</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>74</v>
@@ -14030,13 +14014,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>74</v>
@@ -14058,13 +14042,13 @@
         <v>74</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14130,7 +14114,7 @@
         <v>114</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>74</v>
@@ -14138,13 +14122,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>74</v>
@@ -14166,13 +14150,13 @@
         <v>74</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14238,7 +14222,7 @@
         <v>114</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>74</v>
@@ -14246,14 +14230,12 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C108" t="s" s="2">
         <v>604</v>
       </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>74</v>
       </c>
@@ -14274,13 +14256,13 @@
         <v>74</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="L108" t="s" s="2">
-        <v>606</v>
-      </c>
       <c r="M108" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14304,7 +14286,7 @@
         <v>74</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>74</v>
+        <v>606</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>74</v>
@@ -14331,22 +14313,22 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>113</v>
+        <v>607</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>608</v>
+        <v>74</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>74</v>
@@ -14354,14 +14336,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14377,7 +14359,7 @@
         <v>74</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>99</v>
@@ -14386,9 +14368,11 @@
         <v>610</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>74</v>
@@ -14401,7 +14385,7 @@
         <v>74</v>
       </c>
       <c r="T109" t="s" s="2">
-        <v>74</v>
+        <v>612</v>
       </c>
       <c r="U109" t="s" s="2">
         <v>74</v>
@@ -14410,7 +14394,7 @@
         <v>74</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>611</v>
+        <v>74</v>
       </c>
       <c r="X109" t="s" s="2">
         <v>74</v>
@@ -14437,7 +14421,7 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
@@ -14446,13 +14430,13 @@
         <v>83</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>74</v>
+        <v>614</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>74</v>
@@ -14460,14 +14444,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14489,13 +14473,13 @@
         <v>99</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>305</v>
+        <v>619</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14509,7 +14493,7 @@
         <v>74</v>
       </c>
       <c r="T110" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="U110" t="s" s="2">
         <v>74</v>
@@ -14545,7 +14529,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -14560,7 +14544,7 @@
         <v>96</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>74</v>
@@ -14568,14 +14552,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14597,13 +14581,13 @@
         <v>99</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>624</v>
+        <v>300</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14617,7 +14601,7 @@
         <v>74</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>625</v>
+        <v>74</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>74</v>
@@ -14653,7 +14637,7 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
@@ -14668,7 +14652,7 @@
         <v>96</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>74</v>
@@ -14676,14 +14660,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14705,13 +14689,13 @@
         <v>99</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14725,7 +14709,7 @@
         <v>74</v>
       </c>
       <c r="T112" t="s" s="2">
-        <v>74</v>
+        <v>633</v>
       </c>
       <c r="U112" t="s" s="2">
         <v>74</v>
@@ -14761,7 +14745,7 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
@@ -14776,7 +14760,7 @@
         <v>96</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>74</v>
@@ -14784,14 +14768,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>635</v>
+        <v>74</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -14813,13 +14797,13 @@
         <v>99</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>305</v>
+        <v>639</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -14833,7 +14817,7 @@
         <v>74</v>
       </c>
       <c r="T113" t="s" s="2">
-        <v>638</v>
+        <v>74</v>
       </c>
       <c r="U113" t="s" s="2">
         <v>74</v>
@@ -14869,7 +14853,7 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -14884,7 +14868,7 @@
         <v>96</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>74</v>
@@ -14892,10 +14876,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14918,18 +14902,20 @@
         <v>84</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>99</v>
+        <v>348</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>645</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>74</v>
       </c>
@@ -14941,7 +14927,7 @@
         <v>74</v>
       </c>
       <c r="T114" t="s" s="2">
-        <v>74</v>
+        <v>646</v>
       </c>
       <c r="U114" t="s" s="2">
         <v>74</v>
@@ -14977,7 +14963,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -14989,10 +14975,10 @@
         <v>95</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>646</v>
+        <v>489</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>74</v>
@@ -15000,10 +14986,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15026,19 +15012,19 @@
         <v>84</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>353</v>
+        <v>257</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>74</v>
@@ -15051,7 +15037,7 @@
         <v>74</v>
       </c>
       <c r="T115" t="s" s="2">
-        <v>651</v>
+        <v>74</v>
       </c>
       <c r="U115" t="s" s="2">
         <v>74</v>
@@ -15063,13 +15049,13 @@
         <v>74</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>74</v>
+        <v>652</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>74</v>
+        <v>653</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>74</v>
@@ -15087,7 +15073,7 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
@@ -15099,21 +15085,21 @@
         <v>95</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>494</v>
+        <v>654</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>74</v>
+        <v>425</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15133,22 +15119,20 @@
         <v>74</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>262</v>
+        <v>656</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>74</v>
@@ -15173,13 +15157,13 @@
         <v>74</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>657</v>
+        <v>74</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>658</v>
+        <v>74</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>74</v>
@@ -15197,7 +15181,7 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
@@ -15212,18 +15196,18 @@
         <v>96</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>430</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15246,18 +15230,16 @@
         <v>74</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>661</v>
+        <v>99</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>662</v>
+        <v>100</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>663</v>
+        <v>101</v>
       </c>
       <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>664</v>
-      </c>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>74</v>
       </c>
@@ -15305,7 +15287,7 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>660</v>
+        <v>102</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
@@ -15314,13 +15296,13 @@
         <v>83</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>665</v>
+        <v>103</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>74</v>
@@ -15328,21 +15310,21 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>74</v>
@@ -15354,15 +15336,17 @@
         <v>74</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>74</v>
@@ -15399,34 +15383,34 @@
         <v>74</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>74</v>
@@ -15434,21 +15418,23 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="D119" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>74</v>
@@ -15460,17 +15446,15 @@
         <v>74</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>106</v>
+        <v>665</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>107</v>
+        <v>666</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>74</v>
@@ -15507,16 +15491,16 @@
         <v>74</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>113</v>
@@ -15534,7 +15518,7 @@
         <v>114</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>74</v>
@@ -15545,41 +15529,43 @@
         <v>668</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="C120" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="D120" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M120" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+      <c r="N120" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>74</v>
       </c>
@@ -15627,7 +15613,7 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>113</v>
+        <v>672</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
@@ -15642,7 +15628,7 @@
         <v>114</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>74</v>
@@ -15657,26 +15643,26 @@
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>674</v>
+        <v>74</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>106</v>
+        <v>674</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>675</v>
@@ -15685,11 +15671,9 @@
         <v>676</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>74</v>
       </c>
@@ -15737,22 +15721,22 @@
         <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>97</v>
+        <v>678</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>74</v>
@@ -15760,10 +15744,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15786,7 +15770,7 @@
         <v>74</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>680</v>
@@ -15795,7 +15779,7 @@
         <v>681</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15845,7 +15829,7 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>83</v>
@@ -15860,7 +15844,7 @@
         <v>96</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>74</v>
@@ -15868,10 +15852,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15879,7 +15863,7 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>83</v>
@@ -15894,16 +15878,16 @@
         <v>74</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -15953,10 +15937,10 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>83</v>
@@ -15968,7 +15952,7 @@
         <v>96</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>74</v>
@@ -15976,10 +15960,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15993,27 +15977,29 @@
         <v>83</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>679</v>
+        <v>357</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="N124" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>74</v>
       </c>
@@ -16061,7 +16047,7 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
@@ -16073,10 +16059,10 @@
         <v>95</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>74</v>
@@ -16084,10 +16070,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16101,28 +16087,28 @@
         <v>83</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>362</v>
+        <v>692</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>74</v>
@@ -16171,7 +16157,7 @@
         <v>74</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
@@ -16183,10 +16169,10 @@
         <v>95</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>74</v>
@@ -16194,10 +16180,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16208,7 +16194,7 @@
         <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>74</v>
@@ -16220,20 +16206,18 @@
         <v>74</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>697</v>
+        <v>656</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="O126" t="s" s="2">
         <v>701</v>
       </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>74</v>
       </c>
@@ -16281,19 +16265,19 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>367</v>
+        <v>96</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>702</v>
@@ -16318,7 +16302,7 @@
         <v>75</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>74</v>
@@ -16330,17 +16314,15 @@
         <v>74</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>661</v>
+        <v>99</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>704</v>
+        <v>100</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>74</v>
@@ -16389,22 +16371,22 @@
         <v>74</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>703</v>
+        <v>102</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>707</v>
+        <v>103</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>74</v>
@@ -16412,21 +16394,21 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>74</v>
@@ -16438,15 +16420,17 @@
         <v>74</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N128" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>74</v>
@@ -16483,34 +16467,34 @@
         <v>74</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>74</v>
@@ -16518,14 +16502,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>105</v>
+        <v>669</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -16538,24 +16522,26 @@
         <v>74</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>107</v>
+        <v>670</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>108</v>
+        <v>671</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="O129" s="2"/>
+      <c r="O129" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>74</v>
       </c>
@@ -16591,19 +16577,19 @@
         <v>74</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC129" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>113</v>
+        <v>672</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>75</v>
@@ -16626,14 +16612,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>674</v>
+        <v>74</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -16646,26 +16632,24 @@
         <v>74</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>74</v>
       </c>
@@ -16689,13 +16673,13 @@
         <v>74</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>74</v>
+        <v>709</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>74</v>
+        <v>710</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>74</v>
@@ -16713,7 +16697,7 @@
         <v>74</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>75</v>
@@ -16725,10 +16709,10 @@
         <v>95</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>97</v>
+        <v>702</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>74</v>
@@ -16750,7 +16734,7 @@
         <v>75</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>74</v>
@@ -16762,7 +16746,7 @@
         <v>74</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>712</v>
@@ -16770,9 +16754,7 @@
       <c r="M131" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="N131" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>74</v>
@@ -16797,13 +16779,13 @@
         <v>74</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>714</v>
+        <v>74</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>715</v>
+        <v>74</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>74</v>
@@ -16827,7 +16809,7 @@
         <v>75</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>95</v>
@@ -16836,7 +16818,7 @@
         <v>96</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>74</v>
@@ -16844,10 +16826,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16870,13 +16852,13 @@
         <v>74</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>319</v>
+        <v>715</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16927,7 +16909,7 @@
         <v>74</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>75</v>
@@ -16942,7 +16924,7 @@
         <v>96</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>74</v>
@@ -16950,10 +16932,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16976,13 +16958,13 @@
         <v>74</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -17033,7 +17015,7 @@
         <v>74</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>75</v>
@@ -17048,7 +17030,7 @@
         <v>96</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>74</v>
@@ -17056,10 +17038,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17082,15 +17064,17 @@
         <v>74</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>720</v>
+        <v>99</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>723</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>74</v>
@@ -17139,7 +17123,7 @@
         <v>74</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>75</v>
@@ -17154,7 +17138,7 @@
         <v>96</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>707</v>
+        <v>103</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>74</v>
@@ -17162,10 +17146,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17176,7 +17160,7 @@
         <v>75</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>74</v>
@@ -17188,18 +17172,20 @@
         <v>74</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>99</v>
+        <v>725</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="O135" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="N135" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>74</v>
       </c>
@@ -17247,139 +17233,29 @@
         <v>74</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>103</v>
+        <v>729</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="AL136" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL136">
+  <autoFilter ref="A1:AL135">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17389,7 +17265,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI135">
+  <conditionalFormatting sqref="A2:AI134">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T13:18:43+00:00</t>
+    <t>2024-02-05T15:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-location.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$136</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4675" uniqueCount="735">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T11:08:12+00:00</t>
+    <t>2024-02-15T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -671,6 +671,22 @@
   <si>
     <t>Extension créée dans le cadre du ROR pour décrire une ressource matérielle discriminante pour la réalisation d'une prestation. Cette extension a été créée, car Device ne correspondait pas à la définition de l'équipement pour le ROR.
  Device représente une instance d'un équipement alors l'équipement pour le ROR correspond juste au nombre d'équipement de même type.</t>
+  </si>
+  <si>
+    <t>Location.extension:ror-location-equipment-limit</t>
+  </si>
+  <si>
+    <t>ror-location-equipment-limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-equipment-limit}
+</t>
+  </si>
+  <si>
+    <t>LimiteCaracteristiqueEquipement : limites que peut supporter l'équipement le plus tolérant parmi les équipements spécifiques de même type dans cette organisation</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui précise les limites que peut supporter l'équipement le plus tolérant parmi les équipements spécifiques de même type dans cette organisation.</t>
   </si>
   <si>
     <t>Location.extension:ror-location-residential-capacity</t>
@@ -2596,7 +2612,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL135"/>
+  <dimension ref="A1:AL136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5143,10 +5159,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -5241,43 +5257,41 @@
         <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
@@ -5313,19 +5327,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -5340,7 +5354,7 @@
         <v>114</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -5355,7 +5369,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5368,23 +5382,25 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -5421,9 +5437,11 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
@@ -5431,7 +5449,7 @@
         <v>112</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -5443,25 +5461,23 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
@@ -5470,7 +5486,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -5482,17 +5498,17 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -5529,19 +5545,17 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5556,20 +5570,22 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
@@ -5587,19 +5603,21 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -5647,44 +5665,44 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>74</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -5696,17 +5714,15 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -5743,34 +5759,34 @@
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5778,46 +5794,44 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5841,46 +5855,46 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5888,10 +5902,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5899,7 +5913,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>83</v>
@@ -5908,25 +5922,25 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5951,13 +5965,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5975,7 +5989,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5990,7 +6004,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5998,10 +6012,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6009,7 +6023,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>83</v>
@@ -6021,19 +6035,23 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -6057,13 +6075,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -6081,7 +6099,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -6090,13 +6108,13 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -6104,21 +6122,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -6130,17 +6148,15 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -6177,34 +6193,34 @@
         <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -6212,14 +6228,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6235,23 +6251,21 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -6287,19 +6301,19 @@
         <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -6311,10 +6325,10 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>276</v>
+        <v>97</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -6322,10 +6336,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6336,7 +6350,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -6345,19 +6359,23 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -6405,22 +6423,22 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -6428,21 +6446,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -6454,17 +6472,15 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -6501,34 +6517,34 @@
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -6536,21 +6552,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -6559,23 +6575,21 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -6611,34 +6625,34 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>287</v>
+        <v>113</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -6646,10 +6660,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6672,18 +6686,20 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -6731,7 +6747,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6746,7 +6762,7 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6754,10 +6770,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6765,7 +6781,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>83</v>
@@ -6780,20 +6796,18 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6802,7 +6816,7 @@
         <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>74</v>
@@ -6841,7 +6855,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6856,7 +6870,7 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6864,10 +6878,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6875,7 +6889,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>83</v>
@@ -6890,19 +6904,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6912,7 +6926,7 @@
         <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>74</v>
@@ -6951,7 +6965,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6966,7 +6980,7 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6974,10 +6988,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7000,19 +7014,19 @@
         <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -7061,7 +7075,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -7076,7 +7090,7 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -7084,10 +7098,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7110,19 +7124,19 @@
         <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -7171,7 +7185,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -7186,7 +7200,7 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -7194,10 +7208,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7220,19 +7234,19 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -7245,7 +7259,7 @@
         <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>74</v>
@@ -7281,7 +7295,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7296,7 +7310,7 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -7304,10 +7318,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7330,18 +7344,20 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -7353,7 +7369,7 @@
         <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>74</v>
@@ -7389,7 +7405,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7404,7 +7420,7 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -7412,10 +7428,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7438,16 +7454,16 @@
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>99</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7461,7 +7477,7 @@
         <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>74</v>
@@ -7497,7 +7513,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7509,10 +7525,10 @@
         <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -7520,10 +7536,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7546,16 +7562,16 @@
         <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7605,7 +7621,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7617,10 +7633,10 @@
         <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -7628,14 +7644,12 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7656,18 +7670,18 @@
         <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7715,35 +7729,37 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>230</v>
+        <v>366</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>367</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7761,19 +7777,21 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>100</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7821,44 +7839,44 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>74</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7870,17 +7888,15 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7917,34 +7933,34 @@
         <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7952,46 +7968,44 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -8015,46 +8029,46 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -8062,10 +8076,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8073,7 +8087,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>83</v>
@@ -8082,25 +8096,25 @@
         <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -8125,13 +8139,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -8149,7 +8163,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8164,7 +8178,7 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -8172,10 +8186,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8183,7 +8197,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>83</v>
@@ -8195,19 +8209,23 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
       </c>
@@ -8231,13 +8249,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -8255,7 +8273,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8264,13 +8282,13 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -8278,21 +8296,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -8304,17 +8322,15 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -8351,34 +8367,34 @@
         <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -8386,14 +8402,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8409,23 +8425,21 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8461,19 +8475,19 @@
         <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8485,10 +8499,10 @@
         <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>276</v>
+        <v>97</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -8496,10 +8510,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8510,7 +8524,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -8519,19 +8533,23 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8579,22 +8597,22 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -8602,21 +8620,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -8628,17 +8646,15 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8675,34 +8691,34 @@
         <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -8710,21 +8726,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -8733,23 +8749,21 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8785,34 +8799,34 @@
         <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>287</v>
+        <v>113</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8820,10 +8834,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8846,18 +8860,20 @@
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O58" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8905,7 +8921,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8920,7 +8936,7 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8928,10 +8944,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8939,7 +8955,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>83</v>
@@ -8954,20 +8970,18 @@
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8976,7 +8990,7 @@
         <v>74</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>74</v>
@@ -9015,7 +9029,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -9030,7 +9044,7 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -9038,10 +9052,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9049,7 +9063,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>83</v>
@@ -9064,19 +9078,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -9086,7 +9100,7 @@
         <v>74</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>74</v>
+        <v>384</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>74</v>
@@ -9125,7 +9139,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9140,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -9148,10 +9162,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9174,19 +9188,19 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -9235,7 +9249,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9250,7 +9264,7 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -9258,10 +9272,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9284,19 +9298,19 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -9345,7 +9359,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9360,7 +9374,7 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -9368,10 +9382,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9394,19 +9408,19 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O63" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -9419,7 +9433,7 @@
         <v>74</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>74</v>
@@ -9455,7 +9469,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9470,7 +9484,7 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -9478,10 +9492,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9504,18 +9518,20 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>74</v>
       </c>
@@ -9527,7 +9543,7 @@
         <v>74</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>74</v>
@@ -9563,7 +9579,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9578,7 +9594,7 @@
         <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -9586,10 +9602,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9612,16 +9628,16 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>348</v>
+        <v>99</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9635,7 +9651,7 @@
         <v>74</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>74</v>
@@ -9671,7 +9687,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9683,10 +9699,10 @@
         <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -9694,10 +9710,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9720,16 +9736,16 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9779,7 +9795,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9791,10 +9807,10 @@
         <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -9802,10 +9818,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9822,22 +9838,22 @@
         <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>167</v>
+        <v>362</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9863,13 +9879,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9887,7 +9903,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9899,21 +9915,21 @@
         <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>367</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9930,22 +9946,22 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>397</v>
+        <v>305</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9971,13 +9987,13 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9995,7 +10011,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -10010,18 +10026,18 @@
         <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>147</v>
+        <v>397</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10044,16 +10060,16 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10079,13 +10095,13 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -10103,7 +10119,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -10118,10 +10134,10 @@
         <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>404</v>
+        <v>147</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -10140,7 +10156,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -10149,7 +10165,7 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>99</v>
@@ -10163,9 +10179,7 @@
       <c r="N70" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="O70" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
       </c>
@@ -10201,16 +10215,16 @@
         <v>74</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>410</v>
+        <v>74</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>405</v>
@@ -10219,7 +10233,7 @@
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>95</v>
@@ -10228,7 +10242,7 @@
         <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -10236,14 +10250,12 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>74</v>
       </c>
@@ -10252,7 +10264,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -10267,16 +10279,16 @@
         <v>99</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -10313,19 +10325,19 @@
         <v>74</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10340,7 +10352,7 @@
         <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -10348,12 +10360,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>74</v>
       </c>
@@ -10371,22 +10385,22 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O72" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -10435,13 +10449,13 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>95</v>
@@ -10450,7 +10464,7 @@
         <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -10484,7 +10498,7 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>419</v>
@@ -10493,10 +10507,10 @@
         <v>420</v>
       </c>
       <c r="N73" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
@@ -10521,13 +10535,13 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>423</v>
+        <v>74</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -10560,18 +10574,18 @@
         <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10594,18 +10608,20 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10631,9 +10647,11 @@
       <c r="X74" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y74" s="2"/>
+      <c r="Y74" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="Z74" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>74</v>
@@ -10651,13 +10669,13 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>95</v>
@@ -10666,18 +10684,18 @@
         <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10688,7 +10706,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10697,18 +10715,20 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10733,13 +10753,11 @@
         <v>74</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>74</v>
+        <v>435</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>74</v>
@@ -10757,7 +10775,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10769,21 +10787,21 @@
         <v>95</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AK75" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AL75" t="s" s="2">
-        <v>74</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10794,7 +10812,7 @@
         <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -10806,13 +10824,13 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>99</v>
+        <v>438</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>100</v>
+        <v>439</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10863,22 +10881,22 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>102</v>
+        <v>437</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>103</v>
+        <v>442</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
@@ -10886,10 +10904,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10897,10 +10915,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10912,13 +10930,13 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10957,34 +10975,34 @@
         <v>74</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
@@ -10992,23 +11010,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -11020,13 +11036,13 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>442</v>
+        <v>106</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>443</v>
+        <v>192</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>444</v>
+        <v>193</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11065,16 +11081,16 @@
         <v>74</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>113</v>
@@ -11103,7 +11119,7 @@
         <v>445</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>446</v>
@@ -11113,7 +11129,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>83</v>
@@ -11211,7 +11227,7 @@
         <v>450</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>451</v>
@@ -11221,7 +11237,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>83</v>
@@ -11319,15 +11335,17 @@
         <v>455</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>83</v>
@@ -11339,20 +11357,18 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>167</v>
+        <v>457</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>74</v>
@@ -11377,13 +11393,13 @@
         <v>74</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>458</v>
+        <v>74</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>74</v>
@@ -11401,22 +11417,22 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>460</v>
+        <v>113</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>461</v>
+        <v>95</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>462</v>
+        <v>74</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
@@ -11424,10 +11440,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11435,7 +11451,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>83</v>
@@ -11450,20 +11466,18 @@
         <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
@@ -11487,13 +11501,13 @@
         <v>74</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>74</v>
+        <v>463</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>74</v>
@@ -11511,7 +11525,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11520,13 +11534,13 @@
         <v>83</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>95</v>
+        <v>466</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
@@ -11534,10 +11548,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11545,7 +11559,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>83</v>
@@ -11554,25 +11568,25 @@
         <v>74</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>74</v>
@@ -11597,13 +11611,13 @@
         <v>74</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>475</v>
+        <v>74</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>74</v>
@@ -11621,7 +11635,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11636,7 +11650,7 @@
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
@@ -11644,10 +11658,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11664,24 +11678,26 @@
         <v>74</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>480</v>
+        <v>167</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>74</v>
       </c>
@@ -11705,13 +11721,13 @@
         <v>74</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>74</v>
+        <v>480</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>74</v>
+        <v>481</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>74</v>
@@ -11729,7 +11745,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11744,7 +11760,7 @@
         <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>103</v>
+        <v>483</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>74</v>
@@ -11752,10 +11768,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11778,7 +11794,7 @@
         <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>348</v>
+        <v>485</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>486</v>
@@ -11787,7 +11803,7 @@
         <v>487</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>351</v>
+        <v>488</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11837,7 +11853,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11849,10 +11865,10 @@
         <v>95</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>489</v>
+        <v>103</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>74</v>
@@ -11883,23 +11899,21 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="N86" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>74</v>
       </c>
@@ -11947,7 +11961,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11959,10 +11973,10 @@
         <v>95</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>74</v>
@@ -11970,10 +11984,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11996,16 +12010,20 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>99</v>
+        <v>496</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>100</v>
+        <v>497</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>74</v>
       </c>
@@ -12053,7 +12071,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>102</v>
+        <v>495</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -12062,13 +12080,13 @@
         <v>83</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>103</v>
+        <v>501</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>74</v>
@@ -12076,21 +12094,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>74</v>
@@ -12102,17 +12120,15 @@
         <v>74</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>74</v>
@@ -12149,34 +12165,34 @@
         <v>74</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>74</v>
@@ -12184,46 +12200,44 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>500</v>
+        <v>107</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>501</v>
+        <v>108</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>74</v>
       </c>
@@ -12235,7 +12249,7 @@
         <v>74</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>74</v>
@@ -12247,46 +12261,46 @@
         <v>74</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>505</v>
+        <v>74</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>506</v>
+        <v>74</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>507</v>
+        <v>113</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>478</v>
+        <v>97</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
@@ -12294,10 +12308,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12314,7 +12328,7 @@
         <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>84</v>
@@ -12323,15 +12337,17 @@
         <v>167</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>74</v>
       </c>
@@ -12343,7 +12359,7 @@
         <v>74</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>74</v>
@@ -12358,10 +12374,10 @@
         <v>159</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>74</v>
@@ -12379,7 +12395,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -12394,7 +12410,7 @@
         <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
@@ -12402,10 +12418,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12428,20 +12444,18 @@
         <v>84</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>74</v>
       </c>
@@ -12453,7 +12467,7 @@
         <v>74</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>74</v>
@@ -12465,13 +12479,13 @@
         <v>74</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>74</v>
+        <v>518</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>74</v>
+        <v>519</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>74</v>
@@ -12489,7 +12503,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -12504,7 +12518,7 @@
         <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>74</v>
@@ -12512,10 +12526,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12526,7 +12540,7 @@
         <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>74</v>
@@ -12541,15 +12555,17 @@
         <v>99</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O92" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>74</v>
       </c>
@@ -12561,49 +12577,49 @@
         <v>74</v>
       </c>
       <c r="T92" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF92" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="U92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>95</v>
@@ -12612,7 +12628,7 @@
         <v>96</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>74</v>
@@ -12620,10 +12636,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12634,7 +12650,7 @@
         <v>75</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>74</v>
@@ -12643,18 +12659,20 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>74</v>
@@ -12667,7 +12685,7 @@
         <v>74</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>74</v>
+        <v>532</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>74</v>
@@ -12703,22 +12721,22 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>102</v>
+        <v>533</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>103</v>
+        <v>534</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>74</v>
@@ -12726,21 +12744,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>74</v>
@@ -12752,17 +12770,15 @@
         <v>74</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>74</v>
@@ -12799,34 +12815,34 @@
         <v>74</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>74</v>
@@ -12834,23 +12850,21 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -12862,15 +12876,17 @@
         <v>74</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>534</v>
+        <v>106</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>535</v>
+        <v>107</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>74</v>
@@ -12907,16 +12923,16 @@
         <v>74</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>113</v>
@@ -12934,7 +12950,7 @@
         <v>114</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>537</v>
+        <v>97</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
@@ -12942,13 +12958,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>74</v>
@@ -12970,13 +12986,13 @@
         <v>74</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13042,7 +13058,7 @@
         <v>114</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>74</v>
@@ -13050,13 +13066,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>74</v>
@@ -13078,13 +13094,13 @@
         <v>74</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13150,7 +13166,7 @@
         <v>114</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>74</v>
@@ -13158,13 +13174,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>74</v>
@@ -13186,13 +13202,13 @@
         <v>74</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13258,7 +13274,7 @@
         <v>114</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>74</v>
@@ -13266,13 +13282,13 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>74</v>
@@ -13294,13 +13310,13 @@
         <v>74</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13366,7 +13382,7 @@
         <v>114</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>74</v>
@@ -13374,12 +13390,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C100" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="B100" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
         <v>74</v>
       </c>
@@ -13400,13 +13418,13 @@
         <v>74</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>99</v>
+        <v>563</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>100</v>
+        <v>564</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>101</v>
+        <v>565</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13457,22 +13475,22 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>103</v>
+        <v>566</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>74</v>
@@ -13480,21 +13498,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>74</v>
@@ -13506,17 +13524,15 @@
         <v>74</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>74</v>
@@ -13553,34 +13569,34 @@
         <v>74</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>74</v>
@@ -13588,21 +13604,21 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>74</v>
@@ -13614,16 +13630,16 @@
         <v>74</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>568</v>
+        <v>107</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>569</v>
+        <v>108</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>570</v>
+        <v>109</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13631,7 +13647,7 @@
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>571</v>
+        <v>74</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>74</v>
@@ -13661,31 +13677,31 @@
         <v>74</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>572</v>
+        <v>113</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>97</v>
@@ -13696,10 +13712,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13707,7 +13723,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>83</v>
@@ -13722,22 +13738,24 @@
         <v>74</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L103" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>74</v>
+        <v>576</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>74</v>
@@ -13755,39 +13773,43 @@
         <v>74</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y103" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z103" t="s" s="2">
-        <v>578</v>
+        <v>74</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AC103" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>580</v>
+        <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>97</v>
@@ -13798,14 +13820,12 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
         <v>74</v>
       </c>
@@ -13826,13 +13846,13 @@
         <v>74</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>99</v>
+        <v>580</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13861,29 +13881,25 @@
       <c r="X104" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y104" t="s" s="2">
+      <c r="Y104" s="2"/>
+      <c r="Z104" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB104" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="Z104" t="s" s="2">
+      <c r="AC104" s="2"/>
+      <c r="AD104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE104" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AA104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AF104" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -13906,13 +13922,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>74</v>
@@ -13934,13 +13950,13 @@
         <v>74</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>588</v>
+        <v>99</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13967,13 +13983,13 @@
         <v>74</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>74</v>
+        <v>589</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>74</v>
+        <v>590</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>74</v>
@@ -13991,22 +14007,22 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>113</v>
+        <v>586</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>591</v>
+        <v>97</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>74</v>
@@ -14014,13 +14030,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C106" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>74</v>
@@ -14042,13 +14058,13 @@
         <v>74</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14114,7 +14130,7 @@
         <v>114</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>74</v>
@@ -14122,13 +14138,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>74</v>
@@ -14150,13 +14166,13 @@
         <v>74</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14222,7 +14238,7 @@
         <v>114</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>74</v>
@@ -14230,12 +14246,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C108" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="B108" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>74</v>
       </c>
@@ -14256,13 +14274,13 @@
         <v>74</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>99</v>
+        <v>605</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14286,7 +14304,7 @@
         <v>74</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>606</v>
+        <v>74</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>74</v>
@@ -14313,22 +14331,22 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>607</v>
+        <v>113</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>74</v>
+        <v>608</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>74</v>
@@ -14336,14 +14354,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>609</v>
+        <v>74</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14359,7 +14377,7 @@
         <v>74</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>99</v>
@@ -14368,11 +14386,9 @@
         <v>610</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>74</v>
@@ -14385,44 +14401,44 @@
         <v>74</v>
       </c>
       <c r="T109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF109" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="U109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>613</v>
-      </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
       </c>
@@ -14430,13 +14446,13 @@
         <v>83</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>614</v>
+        <v>74</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>74</v>
@@ -14444,14 +14460,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14473,13 +14489,13 @@
         <v>99</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>619</v>
+        <v>305</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14493,7 +14509,7 @@
         <v>74</v>
       </c>
       <c r="T110" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U110" t="s" s="2">
         <v>74</v>
@@ -14529,7 +14545,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -14544,7 +14560,7 @@
         <v>96</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>74</v>
@@ -14552,14 +14568,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14581,13 +14597,13 @@
         <v>99</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>300</v>
+        <v>624</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14601,7 +14617,7 @@
         <v>74</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>74</v>
+        <v>625</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>74</v>
@@ -14637,7 +14653,7 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
@@ -14652,7 +14668,7 @@
         <v>96</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>74</v>
@@ -14660,14 +14676,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14689,13 +14705,13 @@
         <v>99</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M112" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="N112" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14709,7 +14725,7 @@
         <v>74</v>
       </c>
       <c r="T112" t="s" s="2">
-        <v>633</v>
+        <v>74</v>
       </c>
       <c r="U112" t="s" s="2">
         <v>74</v>
@@ -14745,7 +14761,7 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
@@ -14760,7 +14776,7 @@
         <v>96</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>74</v>
@@ -14768,14 +14784,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>74</v>
+        <v>635</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -14797,13 +14813,13 @@
         <v>99</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M113" t="s" s="2">
-        <v>638</v>
-      </c>
       <c r="N113" t="s" s="2">
-        <v>639</v>
+        <v>305</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -14817,7 +14833,7 @@
         <v>74</v>
       </c>
       <c r="T113" t="s" s="2">
-        <v>74</v>
+        <v>638</v>
       </c>
       <c r="U113" t="s" s="2">
         <v>74</v>
@@ -14853,7 +14869,7 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -14868,7 +14884,7 @@
         <v>96</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>74</v>
@@ -14876,10 +14892,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14902,20 +14918,18 @@
         <v>84</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>348</v>
+        <v>99</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="N114" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>645</v>
-      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>74</v>
       </c>
@@ -14927,7 +14941,7 @@
         <v>74</v>
       </c>
       <c r="T114" t="s" s="2">
-        <v>646</v>
+        <v>74</v>
       </c>
       <c r="U114" t="s" s="2">
         <v>74</v>
@@ -14963,7 +14977,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -14975,10 +14989,10 @@
         <v>95</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>489</v>
+        <v>646</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>74</v>
@@ -14986,10 +15000,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15012,19 +15026,19 @@
         <v>84</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O115" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>74</v>
@@ -15037,7 +15051,7 @@
         <v>74</v>
       </c>
       <c r="T115" t="s" s="2">
-        <v>74</v>
+        <v>651</v>
       </c>
       <c r="U115" t="s" s="2">
         <v>74</v>
@@ -15049,31 +15063,31 @@
         <v>74</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="Y115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF115" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
@@ -15085,21 +15099,21 @@
         <v>95</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>654</v>
+        <v>494</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15119,20 +15133,22 @@
         <v>74</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O116" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>74</v>
@@ -15157,13 +15173,13 @@
         <v>74</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>74</v>
+        <v>657</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>74</v>
+        <v>658</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>74</v>
@@ -15181,7 +15197,7 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
@@ -15196,18 +15212,18 @@
         <v>96</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>74</v>
+        <v>430</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15230,16 +15246,18 @@
         <v>74</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>99</v>
+        <v>661</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>100</v>
+        <v>662</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>101</v>
+        <v>663</v>
       </c>
       <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>74</v>
       </c>
@@ -15287,7 +15305,7 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>102</v>
+        <v>660</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
@@ -15296,13 +15314,13 @@
         <v>83</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>103</v>
+        <v>665</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>74</v>
@@ -15310,21 +15328,21 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>74</v>
@@ -15336,17 +15354,15 @@
         <v>74</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>74</v>
@@ -15383,34 +15399,34 @@
         <v>74</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>74</v>
@@ -15418,23 +15434,21 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>74</v>
@@ -15446,15 +15460,17 @@
         <v>74</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>665</v>
+        <v>106</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>666</v>
+        <v>107</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>74</v>
@@ -15491,16 +15507,16 @@
         <v>74</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>113</v>
@@ -15518,7 +15534,7 @@
         <v>114</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>74</v>
@@ -15529,43 +15545,41 @@
         <v>668</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="C120" s="2"/>
+        <v>667</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>669</v>
+      </c>
       <c r="D120" t="s" s="2">
-        <v>669</v>
+        <v>74</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>106</v>
+        <v>670</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>74</v>
       </c>
@@ -15613,7 +15627,7 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>672</v>
+        <v>113</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
@@ -15628,7 +15642,7 @@
         <v>114</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>74</v>
@@ -15643,26 +15657,26 @@
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>74</v>
+        <v>674</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>674</v>
+        <v>106</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>675</v>
@@ -15671,9 +15685,11 @@
         <v>676</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>74</v>
       </c>
@@ -15721,22 +15737,22 @@
         <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>678</v>
+        <v>97</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>74</v>
@@ -15744,10 +15760,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15770,7 +15786,7 @@
         <v>74</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>680</v>
@@ -15779,7 +15795,7 @@
         <v>681</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15829,7 +15845,7 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>83</v>
@@ -15844,7 +15860,7 @@
         <v>96</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>74</v>
@@ -15852,10 +15868,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15863,7 +15879,7 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>83</v>
@@ -15878,16 +15894,16 @@
         <v>74</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -15937,10 +15953,10 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>83</v>
@@ -15952,7 +15968,7 @@
         <v>96</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>74</v>
@@ -15960,10 +15976,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15977,29 +15993,27 @@
         <v>83</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>357</v>
+        <v>679</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>689</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>74</v>
       </c>
@@ -16047,7 +16061,7 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
@@ -16059,10 +16073,10 @@
         <v>95</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>362</v>
+        <v>96</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>74</v>
@@ -16070,10 +16084,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16087,28 +16101,28 @@
         <v>83</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="O125" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>74</v>
@@ -16157,7 +16171,7 @@
         <v>74</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
@@ -16169,10 +16183,10 @@
         <v>95</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>74</v>
@@ -16180,10 +16194,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16194,7 +16208,7 @@
         <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>74</v>
@@ -16206,18 +16220,20 @@
         <v>74</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>656</v>
+        <v>697</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>74</v>
       </c>
@@ -16265,19 +16281,19 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>96</v>
+        <v>367</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>702</v>
@@ -16302,7 +16318,7 @@
         <v>75</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>74</v>
@@ -16314,15 +16330,17 @@
         <v>74</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>99</v>
+        <v>661</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>100</v>
+        <v>704</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>706</v>
+      </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>74</v>
@@ -16371,22 +16389,22 @@
         <v>74</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>102</v>
+        <v>703</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>103</v>
+        <v>707</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>74</v>
@@ -16394,21 +16412,21 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>74</v>
@@ -16420,17 +16438,15 @@
         <v>74</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>74</v>
@@ -16467,34 +16483,34 @@
         <v>74</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>74</v>
@@ -16502,14 +16518,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>669</v>
+        <v>105</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -16522,26 +16538,24 @@
         <v>74</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>670</v>
+        <v>107</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>671</v>
+        <v>108</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="O129" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>74</v>
       </c>
@@ -16577,19 +16591,19 @@
         <v>74</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AC129" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AD129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>672</v>
+        <v>113</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>75</v>
@@ -16612,14 +16626,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>74</v>
+        <v>674</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -16632,24 +16646,26 @@
         <v>74</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O130" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P130" t="s" s="2">
         <v>74</v>
       </c>
@@ -16673,13 +16689,13 @@
         <v>74</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>709</v>
+        <v>74</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>710</v>
+        <v>74</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>74</v>
@@ -16697,7 +16713,7 @@
         <v>74</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>706</v>
+        <v>677</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>75</v>
@@ -16709,10 +16725,10 @@
         <v>95</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>702</v>
+        <v>97</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>74</v>
@@ -16734,7 +16750,7 @@
         <v>75</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>74</v>
@@ -16746,7 +16762,7 @@
         <v>74</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>712</v>
@@ -16754,7 +16770,9 @@
       <c r="M131" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="N131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>74</v>
@@ -16779,13 +16797,13 @@
         <v>74</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>74</v>
+        <v>714</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>74</v>
+        <v>715</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>74</v>
@@ -16809,7 +16827,7 @@
         <v>75</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>95</v>
@@ -16818,7 +16836,7 @@
         <v>96</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>74</v>
@@ -16826,10 +16844,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16852,13 +16870,13 @@
         <v>74</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>715</v>
+        <v>319</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16909,7 +16927,7 @@
         <v>74</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>75</v>
@@ -16924,7 +16942,7 @@
         <v>96</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>74</v>
@@ -16932,10 +16950,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16958,13 +16976,13 @@
         <v>74</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -17015,7 +17033,7 @@
         <v>74</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>75</v>
@@ -17030,7 +17048,7 @@
         <v>96</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>74</v>
@@ -17038,10 +17056,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17064,17 +17082,15 @@
         <v>74</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>99</v>
+        <v>720</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="N134" s="2"/>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>74</v>
@@ -17123,7 +17139,7 @@
         <v>74</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>75</v>
@@ -17138,7 +17154,7 @@
         <v>96</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>103</v>
+        <v>707</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>74</v>
@@ -17146,10 +17162,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17160,7 +17176,7 @@
         <v>75</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>74</v>
@@ -17172,20 +17188,18 @@
         <v>74</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>725</v>
+        <v>99</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>728</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>74</v>
       </c>
@@ -17233,29 +17247,139 @@
         <v>74</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>362</v>
+        <v>96</v>
       </c>
       <c r="AK135" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="AL135" t="s" s="2">
+      <c r="B136" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="P136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="AL136" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL135">
+  <autoFilter ref="A1:AL136">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17265,7 +17389,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI134">
+  <conditionalFormatting sqref="A2:AI135">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
